--- a/Table 4a Schedules/AHU 1_Table4a.xlsx
+++ b/Table 4a Schedules/AHU 1_Table4a.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rushikesh/Documents/PsychroCalc/Table 4a Schedules/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{781A3642-DCAB-7F4F-BF1D-238D9CD22E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D97DA4D-FD35-E941-8BA6-5659642B67C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="2300" windowWidth="27640" windowHeight="16940" xr2:uid="{2E1201C7-CA04-5343-A2ED-5E4C712974FE}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{3A8C6FDF-C7FA-AA4B-9413-F98EBF2BA2D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="23">
   <si>
     <t>ROOM</t>
   </si>
@@ -68,7 +68,13 @@
     <t>AC/HR CFM</t>
   </si>
   <si>
-    <t>1 CFM/SF</t>
+    <t>DUMMY</t>
+  </si>
+  <si>
+    <t>NR</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
   <si>
     <t>4-A DESIGNATION</t>
@@ -96,15 +102,6 @@
   </si>
   <si>
     <t>EA CFM</t>
-  </si>
-  <si>
-    <t>DUMMY</t>
-  </si>
-  <si>
-    <t>NR</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>PATIENT ROOM</t>
@@ -154,40 +151,17 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="20">
     <dxf>
       <font>
         <b val="0"/>
@@ -662,28 +636,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4D27B24B-1AFE-404E-9D35-1C623C77E3EC}" name="AHU 1Table4A" displayName="AHU_1Table4A" ref="A1:S13" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A1:S13" xr:uid="{4D27B24B-1AFE-404E-9D35-1C623C77E3EC}"/>
-  <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{88DECCA8-9245-AA4B-91FF-1700E6615C6F}" name="ROOM" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{BDCB69C3-1756-9B42-AAF0-461BE78BA762}" name="ROOM #" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{84B35FD9-3042-744B-83E5-D1962389E9BB}" name="AREA (FT²)" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{5A9C9C09-CC65-A74F-8DE3-F01F5DF3CAEF}" name="HG_x000a_(FT)" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{F47CAF99-A497-9D45-B1D6-FD801F3A0AAA}" name="TOTAL AC/HR" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{3F261B3F-F371-6543-9F0B-73F30060A334}" name="100%_x000a_EA" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{B517A5A2-B96C-9147-A1D2-BC821A9787E8}" name="CRICU_x000a_EA" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{941E65F4-A1A9-5D4A-BAC3-380DDD121094}" name="LOAD CFM" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{84AF9BF6-FC62-3E49-93D6-8A4BB69935E0}" name="AC/HR CFM" dataDxfId="12"/>
-    <tableColumn id="10" xr3:uid="{F83AF63A-7969-D94C-AD99-1BDE0DBC60E9}" name="1 CFM/SF" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{F464D369-99DC-4E41-ADBD-3A4FF5368DFB}" name="4-A DESIGNATION" dataDxfId="10"/>
-    <tableColumn id="12" xr3:uid="{A881DE94-565B-124A-A9E9-416F1D135D1B}" name="AIRBALANCE RELATIONSHIP" dataDxfId="9"/>
-    <tableColumn id="13" xr3:uid="{C827F015-5730-444B-9894-99D758D727FE}" name="MINIMUM OSA CHANGES PER HOUR" dataDxfId="8"/>
-    <tableColumn id="14" xr3:uid="{CD95B862-3DA7-984C-8A2A-FBCE821A6D64}" name="OSA CFM" dataDxfId="7"/>
-    <tableColumn id="15" xr3:uid="{376351CA-C0D4-7843-8DFE-C53F7448C738}" name="ALL AIR EXHAUSTED" dataDxfId="6"/>
-    <tableColumn id="16" xr3:uid="{51390CE3-B97F-FF41-A5EF-9FB66C5566C2}" name="CALCULATED SA CFM" dataDxfId="5"/>
-    <tableColumn id="17" xr3:uid="{B34A4843-3F91-6A47-8979-DD340A5FE775}" name="DESIGN SA CFM" dataDxfId="4"/>
-    <tableColumn id="18" xr3:uid="{7F28195D-1900-E74B-9A17-EABBFDEDA6A0}" name="RA CFM" dataDxfId="3"/>
-    <tableColumn id="19" xr3:uid="{22961718-A501-2D47-9FC6-35153D6D9407}" name="EA CFM" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C7383551-45C5-DE4A-AF30-CC9887C33B9C}" name="AHU 1Table4A" displayName="AHU_1Table4A" ref="A1:R13" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A1:R13" xr:uid="{C7383551-45C5-DE4A-AF30-CC9887C33B9C}"/>
+  <tableColumns count="18">
+    <tableColumn id="1" xr3:uid="{6DE2743B-8F0F-1B44-B64D-4AFB2EB59C96}" name="ROOM" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{D3B1B5A9-28B6-384E-B1E4-3439BF499F1E}" name="ROOM #" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{92D8E124-B74D-2F45-A976-2B8C02CD27B1}" name="AREA (FT²)" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{CD8DEFDD-7AE0-A44A-861D-B04C35DE6C81}" name="HG_x000a_(FT)" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{3CB36EDD-E92E-F242-A9AA-A31D291D4731}" name="TOTAL AC/HR" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{8AB80107-EF82-1A48-AA66-1671B5AE2A76}" name="100%_x000a_EA" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{8C3FEC4C-B665-E94C-94B8-C30A2AC6873A}" name="CRICU_x000a_EA" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{368D3C49-1EB7-6E47-AEFB-98B78E4EED40}" name="LOAD CFM" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{87942C9F-DF90-DA44-9B26-FD6B35FEA43F}" name="AC/HR CFM" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{DCAE5B97-BCD1-454E-AFEC-A8F78233F951}" name="4-A DESIGNATION" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{CA02A8B6-DB1F-8846-A19D-A896C487DF4F}" name="AIRBALANCE RELATIONSHIP" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{7874E472-1233-874B-9407-B877A66AF1D0}" name="MINIMUM OSA CHANGES PER HOUR" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{AB6C8D93-312E-9F42-8B3A-72116CB6DE35}" name="OSA CFM" dataDxfId="5"/>
+    <tableColumn id="14" xr3:uid="{D88AA8BA-05C5-2246-B668-A1BF038EFD14}" name="ALL AIR EXHAUSTED" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{4CA00FA6-BA5C-5843-8341-F6A95249C969}" name="CALCULATED SA CFM" dataDxfId="3"/>
+    <tableColumn id="16" xr3:uid="{85FE0845-F6D2-2240-AD90-4D830A156600}" name="DESIGN SA CFM" dataDxfId="2"/>
+    <tableColumn id="17" xr3:uid="{57AA0890-738B-B743-9D86-A19EE5C93C26}" name="RA CFM" dataDxfId="1"/>
+    <tableColumn id="18" xr3:uid="{F4CB1296-C058-124B-ACE9-5194BE7F4839}" name="EA CFM" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -985,11 +958,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAB2EC0E-59A7-4F41-A9DD-A2007217A37B}">
-  <dimension ref="A1:S13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{215A40DA-C436-134E-BEDA-39E3B50E4549}">
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:S13"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1003,19 +976,18 @@
     <col min="7" max="7" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="64.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="42.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="64.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1044,45 +1016,42 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="B2" s="1">
         <v>1234</v>
       </c>
       <c r="C2" s="1">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="D2" s="1">
         <v>10</v>
@@ -1091,116 +1060,110 @@
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>70</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>670</v>
-      </c>
-      <c r="J2" s="1">
-        <v>1000</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>23</v>
+      <c r="L2" s="1">
+        <v>2</v>
       </c>
       <c r="M2" s="1">
-        <v>2</v>
-      </c>
-      <c r="N2" s="1">
-        <v>340</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>20</v>
+        <v>40</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="1">
+        <v>100</v>
       </c>
       <c r="P2" s="1">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="Q2" s="1">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="R2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="S2" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1">
         <v>1234</v>
       </c>
       <c r="C3" s="1">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="D3" s="1">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="E3" s="1">
         <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>130</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1">
-        <v>670</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1000</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>23</v>
+      <c r="L3" s="1">
+        <v>2</v>
       </c>
       <c r="M3" s="1">
-        <v>2</v>
-      </c>
-      <c r="N3" s="1">
-        <v>340</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>20</v>
+        <v>70</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="1">
+        <v>200</v>
       </c>
       <c r="P3" s="1">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="Q3" s="1">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="R3" s="1">
-        <v>1000</v>
-      </c>
-      <c r="S3" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1">
         <v>1234</v>
       </c>
       <c r="C4" s="1">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="D4" s="1">
         <v>10</v>
@@ -1209,57 +1172,54 @@
         <v>4</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>200</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>670</v>
-      </c>
-      <c r="J4" s="1">
-        <v>1000</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>23</v>
+      <c r="L4" s="1">
+        <v>2</v>
       </c>
       <c r="M4" s="1">
-        <v>2</v>
-      </c>
-      <c r="N4" s="1">
-        <v>340</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>20</v>
+        <v>100</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="1">
+        <v>300</v>
       </c>
       <c r="P4" s="1">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="Q4" s="1">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="R4" s="1">
-        <v>1000</v>
-      </c>
-      <c r="S4" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1">
         <v>1234</v>
       </c>
       <c r="C5" s="1">
-        <v>567</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1">
         <v>10</v>
@@ -1268,57 +1228,54 @@
         <v>4</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
         <v>20</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>380</v>
-      </c>
-      <c r="J5" s="1">
-        <v>567</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>23</v>
+      <c r="L5" s="1">
+        <v>2</v>
       </c>
       <c r="M5" s="1">
-        <v>2</v>
-      </c>
-      <c r="N5" s="1">
-        <v>190</v>
-      </c>
-      <c r="O5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="1">
         <v>20</v>
       </c>
       <c r="P5" s="1">
-        <v>570</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="1">
-        <v>570</v>
+        <v>20</v>
       </c>
       <c r="R5" s="1">
-        <v>570</v>
-      </c>
-      <c r="S5" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1">
         <v>1234</v>
       </c>
       <c r="C6" s="1">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="D6" s="1">
         <v>10</v>
@@ -1327,57 +1284,54 @@
         <v>4</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>30</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>670</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1000</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>23</v>
+      <c r="L6" s="1">
+        <v>2</v>
       </c>
       <c r="M6" s="1">
-        <v>2</v>
-      </c>
-      <c r="N6" s="1">
-        <v>340</v>
-      </c>
-      <c r="O6" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="N6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="1">
+        <v>40</v>
+      </c>
       <c r="P6" s="1">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="Q6" s="1">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="R6" s="1">
-        <v>1000</v>
-      </c>
-      <c r="S6" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1">
         <v>1234</v>
       </c>
       <c r="C7" s="1">
-        <v>4444</v>
+        <v>212</v>
       </c>
       <c r="D7" s="1">
         <v>10</v>
@@ -1386,57 +1340,54 @@
         <v>4</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>150</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>2970</v>
-      </c>
-      <c r="J7" s="1">
-        <v>4444</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>23</v>
+      <c r="L7" s="1">
+        <v>2</v>
       </c>
       <c r="M7" s="1">
-        <v>2</v>
-      </c>
-      <c r="N7" s="1">
-        <v>1490</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>20</v>
+        <v>80</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="1">
+        <v>215</v>
       </c>
       <c r="P7" s="1">
-        <v>4445</v>
+        <v>215</v>
       </c>
       <c r="Q7" s="1">
-        <v>4445</v>
+        <v>215</v>
       </c>
       <c r="R7" s="1">
-        <v>4445</v>
-      </c>
-      <c r="S7" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1">
         <v>1234</v>
       </c>
       <c r="C8" s="1">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1">
         <v>10</v>
@@ -1445,57 +1396,54 @@
         <v>4</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
         <v>20</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <v>670</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1000</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>23</v>
+      <c r="L8" s="1">
+        <v>2</v>
       </c>
       <c r="M8" s="1">
-        <v>2</v>
-      </c>
-      <c r="N8" s="1">
-        <v>340</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" s="1">
+        <v>30</v>
       </c>
       <c r="P8" s="1">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Q8" s="1">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="R8" s="1">
-        <v>1000</v>
-      </c>
-      <c r="S8" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1">
         <v>1234</v>
       </c>
       <c r="C9" s="1">
-        <v>1000</v>
+        <v>111</v>
       </c>
       <c r="D9" s="1">
         <v>10</v>
@@ -1504,57 +1452,54 @@
         <v>4</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>80</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
-        <v>670</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1000</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="1" t="s">
-        <v>23</v>
+      <c r="L9" s="1">
+        <v>2</v>
       </c>
       <c r="M9" s="1">
-        <v>2</v>
-      </c>
-      <c r="N9" s="1">
-        <v>340</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>20</v>
+        <v>40</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" s="1">
+        <v>115</v>
       </c>
       <c r="P9" s="1">
-        <v>1000</v>
+        <v>115</v>
       </c>
       <c r="Q9" s="1">
-        <v>1000</v>
+        <v>115</v>
       </c>
       <c r="R9" s="1">
-        <v>1000</v>
-      </c>
-      <c r="S9" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>1234</v>
       </c>
       <c r="C10" s="1">
-        <v>1000</v>
+        <v>256</v>
       </c>
       <c r="D10" s="1">
         <v>10</v>
@@ -1563,57 +1508,54 @@
         <v>4</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>180</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <v>670</v>
-      </c>
-      <c r="J10" s="1">
-        <v>1000</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L10" s="1" t="s">
-        <v>23</v>
+      <c r="L10" s="1">
+        <v>2</v>
       </c>
       <c r="M10" s="1">
-        <v>2</v>
-      </c>
-      <c r="N10" s="1">
-        <v>340</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>20</v>
+        <v>90</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O10" s="1">
+        <v>260</v>
       </c>
       <c r="P10" s="1">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="Q10" s="1">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="R10" s="1">
-        <v>1000</v>
-      </c>
-      <c r="S10" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>1234</v>
       </c>
       <c r="C11" s="1">
-        <v>1000</v>
+        <v>2347</v>
       </c>
       <c r="D11" s="1">
         <v>10</v>
@@ -1622,57 +1564,54 @@
         <v>4</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1570</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <v>670</v>
-      </c>
-      <c r="J11" s="1">
-        <v>1000</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>23</v>
+      <c r="L11" s="1">
+        <v>2</v>
       </c>
       <c r="M11" s="1">
-        <v>2</v>
-      </c>
-      <c r="N11" s="1">
-        <v>340</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>20</v>
+        <v>790</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O11" s="1">
+        <v>2350</v>
       </c>
       <c r="P11" s="1">
-        <v>1000</v>
+        <v>2350</v>
       </c>
       <c r="Q11" s="1">
-        <v>1000</v>
+        <v>2350</v>
       </c>
       <c r="R11" s="1">
-        <v>1000</v>
-      </c>
-      <c r="S11" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1">
         <v>1234</v>
       </c>
       <c r="C12" s="1">
-        <v>1000</v>
+        <v>454</v>
       </c>
       <c r="D12" s="1">
         <v>10</v>
@@ -1681,53 +1620,50 @@
         <v>4</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>310</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1">
-        <v>670</v>
-      </c>
-      <c r="J12" s="1">
-        <v>1000</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>23</v>
+      <c r="L12" s="1">
+        <v>2</v>
       </c>
       <c r="M12" s="1">
-        <v>2</v>
-      </c>
-      <c r="N12" s="1">
-        <v>340</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>20</v>
+        <v>160</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O12" s="1">
+        <v>455</v>
       </c>
       <c r="P12" s="1">
-        <v>1000</v>
+        <v>455</v>
       </c>
       <c r="Q12" s="1">
-        <v>1000</v>
+        <v>455</v>
       </c>
       <c r="R12" s="1">
-        <v>1000</v>
-      </c>
-      <c r="S12" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1">
-        <v>14011</v>
+        <v>4063</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1738,21 +1674,20 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1">
-        <v>4740</v>
-      </c>
-      <c r="O13" s="1"/>
+      <c r="M13" s="1">
+        <v>1410</v>
+      </c>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1">
+        <v>4085</v>
+      </c>
       <c r="P13" s="1">
-        <v>14015</v>
+        <v>4085</v>
       </c>
       <c r="Q13" s="1">
-        <v>14015</v>
+        <v>4085</v>
       </c>
       <c r="R13" s="1">
-        <v>14015</v>
-      </c>
-      <c r="S13" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Table 4a Schedules/AHU 1_Table4a.xlsx
+++ b/Table 4a Schedules/AHU 1_Table4a.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rushikesh/Documents/PsychroCalc/Table 4a Schedules/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rush\OneDrive - SC Engineers\Documents\Desktop\AHU\PsychroCalc\Table 4a Schedules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D97DA4D-FD35-E941-8BA6-5659642B67C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFBB59DE-B647-463C-822C-D5783A8793CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{3A8C6FDF-C7FA-AA4B-9413-F98EBF2BA2D3}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{28976307-2575-4E6F-823D-F0859E3D3956}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -116,7 +116,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -151,10 +151,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -636,27 +636,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C7383551-45C5-DE4A-AF30-CC9887C33B9C}" name="AHU 1Table4A" displayName="AHU_1Table4A" ref="A1:R13" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A1:R13" xr:uid="{C7383551-45C5-DE4A-AF30-CC9887C33B9C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{322A617C-B84C-48CF-AD04-CE6C257A0E23}" name="AHU 1Table4A" displayName="AHU_1Table4A" ref="A1:R13" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:R13" xr:uid="{322A617C-B84C-48CF-AD04-CE6C257A0E23}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{6DE2743B-8F0F-1B44-B64D-4AFB2EB59C96}" name="ROOM" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{D3B1B5A9-28B6-384E-B1E4-3439BF499F1E}" name="ROOM #" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{92D8E124-B74D-2F45-A976-2B8C02CD27B1}" name="AREA (FT²)" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{CD8DEFDD-7AE0-A44A-861D-B04C35DE6C81}" name="HG_x000a_(FT)" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{3CB36EDD-E92E-F242-A9AA-A31D291D4731}" name="TOTAL AC/HR" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{8AB80107-EF82-1A48-AA66-1671B5AE2A76}" name="100%_x000a_EA" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{8C3FEC4C-B665-E94C-94B8-C30A2AC6873A}" name="CRICU_x000a_EA" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{368D3C49-1EB7-6E47-AEFB-98B78E4EED40}" name="LOAD CFM" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{87942C9F-DF90-DA44-9B26-FD6B35FEA43F}" name="AC/HR CFM" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{DCAE5B97-BCD1-454E-AFEC-A8F78233F951}" name="4-A DESIGNATION" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{CA02A8B6-DB1F-8846-A19D-A896C487DF4F}" name="AIRBALANCE RELATIONSHIP" dataDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{7874E472-1233-874B-9407-B877A66AF1D0}" name="MINIMUM OSA CHANGES PER HOUR" dataDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{AB6C8D93-312E-9F42-8B3A-72116CB6DE35}" name="OSA CFM" dataDxfId="5"/>
-    <tableColumn id="14" xr3:uid="{D88AA8BA-05C5-2246-B668-A1BF038EFD14}" name="ALL AIR EXHAUSTED" dataDxfId="4"/>
-    <tableColumn id="15" xr3:uid="{4CA00FA6-BA5C-5843-8341-F6A95249C969}" name="CALCULATED SA CFM" dataDxfId="3"/>
-    <tableColumn id="16" xr3:uid="{85FE0845-F6D2-2240-AD90-4D830A156600}" name="DESIGN SA CFM" dataDxfId="2"/>
-    <tableColumn id="17" xr3:uid="{57AA0890-738B-B743-9D86-A19EE5C93C26}" name="RA CFM" dataDxfId="1"/>
-    <tableColumn id="18" xr3:uid="{F4CB1296-C058-124B-ACE9-5194BE7F4839}" name="EA CFM" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{806FDB61-D165-4284-BD86-5CC7D5C44C2C}" name="ROOM" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{3519EB69-4EE4-40F7-85B2-DDDD43EA06A0}" name="ROOM #" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{88D82F3E-48BA-4289-8FC0-130B76911AA1}" name="AREA (FT²)" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{E7E74BC0-4DB6-4957-86C2-3052D71710A9}" name="HG_x000a_(FT)" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{C71E0791-AEA8-4C31-A24B-96C8ADED727D}" name="TOTAL AC/HR" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{F38D822F-C257-4D68-99AA-63336F660B7D}" name="100%_x000a_EA" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{2592B948-49B0-4C3E-BEF3-9E3E2F120058}" name="CRICU_x000a_EA" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{63FF9BA1-8F66-49B4-B1DD-218EC217F7D9}" name="LOAD CFM" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{312A3A96-FF94-4656-92FB-57024260F14F}" name="AC/HR CFM" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{3EEDB53C-6DEC-48D1-9B60-01F2FDA0BEEE}" name="4-A DESIGNATION" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{4B9A6C3D-5861-4D2F-8FA0-8DC61F415784}" name="AIRBALANCE RELATIONSHIP" dataDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{E78B8AC1-C08F-4DC8-A477-579F4DE3D5EE}" name="MINIMUM OSA CHANGES PER HOUR" dataDxfId="8"/>
+    <tableColumn id="13" xr3:uid="{F1C5D310-AFBD-45A9-826A-FAA24BEDCCD9}" name="OSA CFM" dataDxfId="7"/>
+    <tableColumn id="14" xr3:uid="{B7D8ACCF-A30B-448D-A1FF-326A6C09F00E}" name="ALL AIR EXHAUSTED" dataDxfId="6"/>
+    <tableColumn id="15" xr3:uid="{D05ACEFA-D193-4D5B-977F-710FD35BD565}" name="CALCULATED SA CFM" dataDxfId="5"/>
+    <tableColumn id="16" xr3:uid="{C134F233-7BFE-4F21-91C6-F4B5FFF18CF3}" name="DESIGN SA CFM" dataDxfId="4"/>
+    <tableColumn id="17" xr3:uid="{194F00AB-0556-4103-BDF7-D44A1A4432D3}" name="RA CFM" dataDxfId="3"/>
+    <tableColumn id="18" xr3:uid="{149CB029-7C32-49CE-A670-86316F50C6F3}" name="EA CFM" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -958,36 +958,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{215A40DA-C436-134E-BEDA-39E3B50E4549}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D99FB39-F6A3-4003-9665-3CBE8099CF34}">
   <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="J1" sqref="J1:R13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="64.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="42.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="70.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="47.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -1659,7 +1659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1">

--- a/Table 4a Schedules/AHU 1_Table4a.xlsx
+++ b/Table 4a Schedules/AHU 1_Table4a.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rush\OneDrive - SC Engineers\Documents\Desktop\AHU\PsychroCalc\Table 4a Schedules\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rush\OneDrive - SC Engineers\Documents\Desktop\PsychroCalc\Table 4a Schedules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFBB59DE-B647-463C-822C-D5783A8793CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA62DF4D-E4CC-47FE-A857-2D8CE4F95E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{28976307-2575-4E6F-823D-F0859E3D3956}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{2E7656F7-CEC7-40C2-A08E-5D379BEC02DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,8 +58,8 @@
 EA</t>
   </si>
   <si>
-    <t>CRICU
-EA</t>
+    <t>EA
+(CFM)</t>
   </si>
   <si>
     <t>LOAD CFM</t>
@@ -636,27 +636,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{322A617C-B84C-48CF-AD04-CE6C257A0E23}" name="AHU 1Table4A" displayName="AHU_1Table4A" ref="A1:R13" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A1:R13" xr:uid="{322A617C-B84C-48CF-AD04-CE6C257A0E23}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A44A7D56-E7C1-406E-A145-ACBEBEE80B33}" name="AHU 1Table4A" displayName="AHU_1Table4A" ref="A1:R13" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:R13" xr:uid="{A44A7D56-E7C1-406E-A145-ACBEBEE80B33}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{806FDB61-D165-4284-BD86-5CC7D5C44C2C}" name="ROOM" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{3519EB69-4EE4-40F7-85B2-DDDD43EA06A0}" name="ROOM #" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{88D82F3E-48BA-4289-8FC0-130B76911AA1}" name="AREA (FT²)" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{E7E74BC0-4DB6-4957-86C2-3052D71710A9}" name="HG_x000a_(FT)" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{C71E0791-AEA8-4C31-A24B-96C8ADED727D}" name="TOTAL AC/HR" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{F38D822F-C257-4D68-99AA-63336F660B7D}" name="100%_x000a_EA" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{2592B948-49B0-4C3E-BEF3-9E3E2F120058}" name="CRICU_x000a_EA" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{63FF9BA1-8F66-49B4-B1DD-218EC217F7D9}" name="LOAD CFM" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{312A3A96-FF94-4656-92FB-57024260F14F}" name="AC/HR CFM" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{3EEDB53C-6DEC-48D1-9B60-01F2FDA0BEEE}" name="4-A DESIGNATION" dataDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{4B9A6C3D-5861-4D2F-8FA0-8DC61F415784}" name="AIRBALANCE RELATIONSHIP" dataDxfId="9"/>
-    <tableColumn id="12" xr3:uid="{E78B8AC1-C08F-4DC8-A477-579F4DE3D5EE}" name="MINIMUM OSA CHANGES PER HOUR" dataDxfId="8"/>
-    <tableColumn id="13" xr3:uid="{F1C5D310-AFBD-45A9-826A-FAA24BEDCCD9}" name="OSA CFM" dataDxfId="7"/>
-    <tableColumn id="14" xr3:uid="{B7D8ACCF-A30B-448D-A1FF-326A6C09F00E}" name="ALL AIR EXHAUSTED" dataDxfId="6"/>
-    <tableColumn id="15" xr3:uid="{D05ACEFA-D193-4D5B-977F-710FD35BD565}" name="CALCULATED SA CFM" dataDxfId="5"/>
-    <tableColumn id="16" xr3:uid="{C134F233-7BFE-4F21-91C6-F4B5FFF18CF3}" name="DESIGN SA CFM" dataDxfId="4"/>
-    <tableColumn id="17" xr3:uid="{194F00AB-0556-4103-BDF7-D44A1A4432D3}" name="RA CFM" dataDxfId="3"/>
-    <tableColumn id="18" xr3:uid="{149CB029-7C32-49CE-A670-86316F50C6F3}" name="EA CFM" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{6D646F6C-1320-4AC9-85FF-36810F4C03ED}" name="ROOM" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{694F636B-44D0-426A-B310-D3DBD376C409}" name="ROOM #" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{2B1E50B4-601E-4350-9DDC-B1E38A3A537B}" name="AREA (FT²)" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{3A269908-28C6-4AD5-9D90-09FDB5DEB4B8}" name="HG_x000a_(FT)" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{6F78EAF9-5789-4F80-97E7-81E9DCFEB6BC}" name="TOTAL AC/HR" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{E03C3B5D-5BD3-4BDB-AEBC-DB23B6BE5EF7}" name="100%_x000a_EA" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{1176A426-9AC8-4E8A-BD18-0866E41CAA6B}" name="EA_x000a_(CFM)" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{B84B6F43-AC93-44EC-928A-AD017BB05291}" name="LOAD CFM" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{4F10F861-446E-4278-8939-AB68AAAC0A03}" name="AC/HR CFM" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{17CD88BD-EA14-4B82-B732-B68B6A287BB2}" name="4-A DESIGNATION" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{50176180-4CF7-4981-9A8B-9951A1CC1F79}" name="AIRBALANCE RELATIONSHIP" dataDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{BDA65872-D722-4330-9638-42DC86642A2B}" name="MINIMUM OSA CHANGES PER HOUR" dataDxfId="8"/>
+    <tableColumn id="13" xr3:uid="{862677E9-8EAD-482E-8BC7-951ACACEF763}" name="OSA CFM" dataDxfId="7"/>
+    <tableColumn id="14" xr3:uid="{3B6B5265-3601-4E03-A46F-22C7E02965E6}" name="ALL AIR EXHAUSTED" dataDxfId="6"/>
+    <tableColumn id="15" xr3:uid="{42DE7884-B1A5-46B6-8EA1-152B1CAE08BD}" name="CALCULATED SA CFM" dataDxfId="5"/>
+    <tableColumn id="16" xr3:uid="{63C59A59-BD40-4B09-9E97-ABDD0F8EB48C}" name="DESIGN SA CFM" dataDxfId="4"/>
+    <tableColumn id="17" xr3:uid="{99BBB504-D7F6-4C45-B127-028117C864F4}" name="RA CFM" dataDxfId="3"/>
+    <tableColumn id="18" xr3:uid="{400727A0-BABC-4A86-B206-D073D37BD6EF}" name="EA CFM" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -958,7 +958,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D99FB39-F6A3-4003-9665-3CBE8099CF34}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C87BD971-46B1-4070-B0ED-A984D48F9370}">
   <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -973,7 +973,7 @@
     <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26.28515625" bestFit="1" customWidth="1"/>

--- a/Table 4a Schedules/AHU 1_Table4a.xlsx
+++ b/Table 4a Schedules/AHU 1_Table4a.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rush\OneDrive - SC Engineers\Documents\Desktop\PsychroCalc\Table 4a Schedules\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rushikesh/Documents/PsychroCalc/Table 4a Schedules/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA62DF4D-E4CC-47FE-A857-2D8CE4F95E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E6540AA-D1F9-4345-9297-479CA47E90F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{2E7656F7-CEC7-40C2-A08E-5D379BEC02DC}"/>
+    <workbookView xWindow="5580" yWindow="2300" windowWidth="27640" windowHeight="16940" xr2:uid="{70F17B98-1B1A-C94C-AFB6-6C94965BE9D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="22">
   <si>
     <t>ROOM</t>
   </si>
@@ -105,9 +105,6 @@
   </si>
   <si>
     <t>PATIENT ROOM</t>
-  </si>
-  <si>
-    <t>NO REQUIREMENT FOR CONTINUOUS DIRECTIONAL CONTROL</t>
   </si>
 </sst>
 </file>
@@ -116,7 +113,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -636,27 +633,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A44A7D56-E7C1-406E-A145-ACBEBEE80B33}" name="AHU 1Table4A" displayName="AHU_1Table4A" ref="A1:R13" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A1:R13" xr:uid="{A44A7D56-E7C1-406E-A145-ACBEBEE80B33}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14A57F70-4E16-DC48-83A3-27C32F8D249B}" name="AHU 1Table4A" displayName="AHU_1Table4A" ref="A1:R13" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:R13" xr:uid="{14A57F70-4E16-DC48-83A3-27C32F8D249B}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{6D646F6C-1320-4AC9-85FF-36810F4C03ED}" name="ROOM" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{694F636B-44D0-426A-B310-D3DBD376C409}" name="ROOM #" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{2B1E50B4-601E-4350-9DDC-B1E38A3A537B}" name="AREA (FT²)" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{3A269908-28C6-4AD5-9D90-09FDB5DEB4B8}" name="HG_x000a_(FT)" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{6F78EAF9-5789-4F80-97E7-81E9DCFEB6BC}" name="TOTAL AC/HR" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{E03C3B5D-5BD3-4BDB-AEBC-DB23B6BE5EF7}" name="100%_x000a_EA" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{1176A426-9AC8-4E8A-BD18-0866E41CAA6B}" name="EA_x000a_(CFM)" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{B84B6F43-AC93-44EC-928A-AD017BB05291}" name="LOAD CFM" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{4F10F861-446E-4278-8939-AB68AAAC0A03}" name="AC/HR CFM" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{17CD88BD-EA14-4B82-B732-B68B6A287BB2}" name="4-A DESIGNATION" dataDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{50176180-4CF7-4981-9A8B-9951A1CC1F79}" name="AIRBALANCE RELATIONSHIP" dataDxfId="9"/>
-    <tableColumn id="12" xr3:uid="{BDA65872-D722-4330-9638-42DC86642A2B}" name="MINIMUM OSA CHANGES PER HOUR" dataDxfId="8"/>
-    <tableColumn id="13" xr3:uid="{862677E9-8EAD-482E-8BC7-951ACACEF763}" name="OSA CFM" dataDxfId="7"/>
-    <tableColumn id="14" xr3:uid="{3B6B5265-3601-4E03-A46F-22C7E02965E6}" name="ALL AIR EXHAUSTED" dataDxfId="6"/>
-    <tableColumn id="15" xr3:uid="{42DE7884-B1A5-46B6-8EA1-152B1CAE08BD}" name="CALCULATED SA CFM" dataDxfId="5"/>
-    <tableColumn id="16" xr3:uid="{63C59A59-BD40-4B09-9E97-ABDD0F8EB48C}" name="DESIGN SA CFM" dataDxfId="4"/>
-    <tableColumn id="17" xr3:uid="{99BBB504-D7F6-4C45-B127-028117C864F4}" name="RA CFM" dataDxfId="3"/>
-    <tableColumn id="18" xr3:uid="{400727A0-BABC-4A86-B206-D073D37BD6EF}" name="EA CFM" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{B6485D51-6152-C441-8871-0DF9A7885F79}" name="ROOM" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{211FE045-BE0B-774A-A48B-D6FD4BFED3E0}" name="ROOM #" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{D141E51C-D5A9-E040-9512-E6F68B98D4E0}" name="AREA (FT²)" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{FE140630-2A3A-DE4B-912F-1909D29E1B8B}" name="HG_x000a_(FT)" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{2A02F429-A7BB-0F42-BCCC-80D9A67F0329}" name="TOTAL AC/HR" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{A4812ACC-93BC-FE4F-98D7-F6294E2334DB}" name="100%_x000a_EA" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{942B14AA-9ECC-7B43-B896-BDB652D38F31}" name="EA_x000a_(CFM)" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{325D2980-8CBF-7246-8773-D81A0CD7B101}" name="LOAD CFM" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{F03EB34C-47F1-914D-AADB-B0FAA1E8C00F}" name="AC/HR CFM" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{8B3DE8E3-1E7C-8F40-AA14-9CC7AA3A1D45}" name="4-A DESIGNATION" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{4E0CEEB4-BBAB-B74D-9911-21C2297E015A}" name="AIRBALANCE RELATIONSHIP" dataDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{ED354AA7-FC68-C745-8A74-3A3A77E36A2E}" name="MINIMUM OSA CHANGES PER HOUR" dataDxfId="8"/>
+    <tableColumn id="13" xr3:uid="{90F664AB-F431-6943-9F29-A105BD2B3617}" name="OSA CFM" dataDxfId="7"/>
+    <tableColumn id="14" xr3:uid="{974C251D-E2C6-4B42-9059-D284B627B3FA}" name="ALL AIR EXHAUSTED" dataDxfId="6"/>
+    <tableColumn id="15" xr3:uid="{C09FD1AD-D976-C442-B884-DB2A350B355D}" name="CALCULATED SA CFM" dataDxfId="5"/>
+    <tableColumn id="16" xr3:uid="{D35545DA-850F-044F-B00E-7AC155C6685D}" name="DESIGN SA CFM" dataDxfId="4"/>
+    <tableColumn id="17" xr3:uid="{D7460AC1-2BC8-4A46-8605-7C6C77B872DC}" name="RA CFM" dataDxfId="3"/>
+    <tableColumn id="18" xr3:uid="{84B5D789-C733-3649-ADEE-E6D471DFD7DA}" name="EA CFM" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -958,36 +955,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C87BD971-46B1-4070-B0ED-A984D48F9370}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E27C6791-E8A6-9849-ADC0-720E1F2AE286}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J1" sqref="J1:R13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="70.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="47.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1043,7 +1041,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1075,7 +1073,7 @@
         <v>21</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="L2" s="1">
         <v>2</v>
@@ -1099,7 +1097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1131,7 +1129,7 @@
         <v>21</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="L3" s="1">
         <v>2</v>
@@ -1155,7 +1153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1187,7 +1185,7 @@
         <v>21</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="L4" s="1">
         <v>2</v>
@@ -1211,7 +1209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1243,7 +1241,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="L5" s="1">
         <v>2</v>
@@ -1267,7 +1265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1299,7 +1297,7 @@
         <v>21</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="L6" s="1">
         <v>2</v>
@@ -1323,7 +1321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1355,7 +1353,7 @@
         <v>21</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="L7" s="1">
         <v>2</v>
@@ -1379,7 +1377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1411,7 +1409,7 @@
         <v>21</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="L8" s="1">
         <v>2</v>
@@ -1435,7 +1433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -1467,7 +1465,7 @@
         <v>21</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="L9" s="1">
         <v>2</v>
@@ -1491,7 +1489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1523,7 +1521,7 @@
         <v>21</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="L10" s="1">
         <v>2</v>
@@ -1547,7 +1545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1579,7 +1577,7 @@
         <v>21</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="L11" s="1">
         <v>2</v>
@@ -1603,7 +1601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -1635,7 +1633,7 @@
         <v>21</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="L12" s="1">
         <v>2</v>
@@ -1659,7 +1657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1">

--- a/Table 4a Schedules/AHU 1_Table4a.xlsx
+++ b/Table 4a Schedules/AHU 1_Table4a.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rushikesh/Documents/PsychroCalc/Table 4a Schedules/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rush\OneDrive - SC Engineers\Documents\Desktop\PsychroCalc\Table 4a Schedules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E6540AA-D1F9-4345-9297-479CA47E90F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DD6D8EA-ABC7-4A1C-98B8-BB6B61553A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="2300" windowWidth="27640" windowHeight="16940" xr2:uid="{70F17B98-1B1A-C94C-AFB6-6C94965BE9D0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AD20838E-8D4F-4C8B-9157-47FA81527B43}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -113,7 +113,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -633,27 +633,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14A57F70-4E16-DC48-83A3-27C32F8D249B}" name="AHU 1Table4A" displayName="AHU_1Table4A" ref="A1:R13" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A1:R13" xr:uid="{14A57F70-4E16-DC48-83A3-27C32F8D249B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F4E36AE5-7CEA-40E0-9956-6CE53C9E059D}" name="AHU 1Table4A" displayName="AHU_1Table4A" ref="A1:R13" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:R13" xr:uid="{F4E36AE5-7CEA-40E0-9956-6CE53C9E059D}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{B6485D51-6152-C441-8871-0DF9A7885F79}" name="ROOM" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{211FE045-BE0B-774A-A48B-D6FD4BFED3E0}" name="ROOM #" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{D141E51C-D5A9-E040-9512-E6F68B98D4E0}" name="AREA (FT²)" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{FE140630-2A3A-DE4B-912F-1909D29E1B8B}" name="HG_x000a_(FT)" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{2A02F429-A7BB-0F42-BCCC-80D9A67F0329}" name="TOTAL AC/HR" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{A4812ACC-93BC-FE4F-98D7-F6294E2334DB}" name="100%_x000a_EA" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{942B14AA-9ECC-7B43-B896-BDB652D38F31}" name="EA_x000a_(CFM)" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{325D2980-8CBF-7246-8773-D81A0CD7B101}" name="LOAD CFM" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{F03EB34C-47F1-914D-AADB-B0FAA1E8C00F}" name="AC/HR CFM" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{8B3DE8E3-1E7C-8F40-AA14-9CC7AA3A1D45}" name="4-A DESIGNATION" dataDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{4E0CEEB4-BBAB-B74D-9911-21C2297E015A}" name="AIRBALANCE RELATIONSHIP" dataDxfId="9"/>
-    <tableColumn id="12" xr3:uid="{ED354AA7-FC68-C745-8A74-3A3A77E36A2E}" name="MINIMUM OSA CHANGES PER HOUR" dataDxfId="8"/>
-    <tableColumn id="13" xr3:uid="{90F664AB-F431-6943-9F29-A105BD2B3617}" name="OSA CFM" dataDxfId="7"/>
-    <tableColumn id="14" xr3:uid="{974C251D-E2C6-4B42-9059-D284B627B3FA}" name="ALL AIR EXHAUSTED" dataDxfId="6"/>
-    <tableColumn id="15" xr3:uid="{C09FD1AD-D976-C442-B884-DB2A350B355D}" name="CALCULATED SA CFM" dataDxfId="5"/>
-    <tableColumn id="16" xr3:uid="{D35545DA-850F-044F-B00E-7AC155C6685D}" name="DESIGN SA CFM" dataDxfId="4"/>
-    <tableColumn id="17" xr3:uid="{D7460AC1-2BC8-4A46-8605-7C6C77B872DC}" name="RA CFM" dataDxfId="3"/>
-    <tableColumn id="18" xr3:uid="{84B5D789-C733-3649-ADEE-E6D471DFD7DA}" name="EA CFM" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{65FBB432-BEE3-4B04-9A03-FE0A34E33936}" name="ROOM" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{B304A135-DE33-4F32-AA00-15F8CA309BE6}" name="ROOM #" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{A4E91667-4A70-48E8-933E-68B4370434AA}" name="AREA (FT²)" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{52B90A4B-D52A-45FB-8BE5-139EF9407F58}" name="HG_x000a_(FT)" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{02D87F5F-4977-4DFB-98AC-E1C53BF85C27}" name="TOTAL AC/HR" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{26F132B7-BA0A-46B4-9F6D-3DF7123B5555}" name="100%_x000a_EA" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{B3CFC375-92EA-4C37-8549-D3B3C29D7008}" name="EA_x000a_(CFM)" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{9E050224-CDE6-4B42-8515-72A545BAC087}" name="LOAD CFM" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{00EB47A5-8740-4C89-AEF7-08E57AB41892}" name="AC/HR CFM" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{925FB306-4F4C-40A4-93A6-B5BC9AA3B62C}" name="4-A DESIGNATION" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{5204B984-7C4C-41D9-AA83-F27DFF5B7752}" name="AIRBALANCE RELATIONSHIP" dataDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{F68A4418-F02C-41C1-A5F2-268884BAD208}" name="MINIMUM OSA CHANGES PER HOUR" dataDxfId="8"/>
+    <tableColumn id="13" xr3:uid="{97F6F6A2-29C0-4D15-8F40-BFF029B57C21}" name="OSA CFM" dataDxfId="7"/>
+    <tableColumn id="14" xr3:uid="{8AB8C87A-32DF-49A4-8858-3CA076113D44}" name="ALL AIR EXHAUSTED" dataDxfId="6"/>
+    <tableColumn id="15" xr3:uid="{96EC5870-DDD8-4EAD-A7F2-D534228E2F97}" name="CALCULATED SA CFM" dataDxfId="5"/>
+    <tableColumn id="16" xr3:uid="{85261BC4-CE1D-441F-B4F9-836B24D1A6A5}" name="DESIGN SA CFM" dataDxfId="4"/>
+    <tableColumn id="17" xr3:uid="{0420752E-12DB-4F36-91D5-63ECB605A04F}" name="RA CFM" dataDxfId="3"/>
+    <tableColumn id="18" xr3:uid="{E4983DB2-FD56-4728-9E4A-1A457582182E}" name="EA CFM" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -955,37 +955,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E27C6791-E8A6-9849-ADC0-720E1F2AE286}">
-  <sheetPr codeName="Sheet1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68C9BA6-2D1D-4C8F-AD00-134E12BA52C5}">
   <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J1" sqref="J1:R13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="35.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="42.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="47.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1041,7 +1040,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1097,7 +1096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1153,7 +1152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1209,7 +1208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,7 +1264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1321,7 +1320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1377,7 +1376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1433,7 +1432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -1489,7 +1488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1545,7 +1544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1601,7 +1600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -1657,7 +1656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1">
